--- a/output/KAPITALO_27879995000169.xlsx
+++ b/output/KAPITALO_27879995000169.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.3620227</v>
+        <v>0.3570549999999999</v>
       </c>
       <c r="C43">
-        <v>0.03756098616318937</v>
+        <v>0.03377669408717399</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_27879995000169.xlsx
+++ b/output/KAPITALO_27879995000169.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO ZETA RED FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
@@ -411,455 +405,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
         <v>0.04571750000000008</v>
       </c>
-      <c r="C3">
-        <v>0.04571750000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.06240629999999991</v>
-      </c>
-      <c r="C4">
         <v>0.01595918591780277</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.1055029000000001</v>
-      </c>
-      <c r="C5">
         <v>0.04056508324545915</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.09357510000000002</v>
-      </c>
-      <c r="C6">
         <v>-0.01078947870693059</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.08942849999999991</v>
-      </c>
-      <c r="C7">
         <v>-0.00379178348153697</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.09413010000000011</v>
-      </c>
-      <c r="C8">
         <v>0.004315657245978155</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.1511302000000001</v>
-      </c>
-      <c r="C9">
         <v>0.0520962726461871</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.1862653999999999</v>
-      </c>
-      <c r="C10">
         <v>0.03052235099035694</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.2301040000000001</v>
-      </c>
-      <c r="C11">
         <v>0.03695513668357875</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.2652410000000001</v>
-      </c>
-      <c r="C12">
         <v>0.02856425147792385</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.2284539000000001</v>
-      </c>
-      <c r="C13">
         <v>-0.02907517223991318</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.2598864999999999</v>
-      </c>
-      <c r="C14">
         <v>0.02558712215411574</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.2803743000000001</v>
-      </c>
-      <c r="C15">
         <v>0.01626162356688488</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.2765679000000001</v>
-      </c>
-      <c r="C16">
         <v>-0.002972880664661837</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.3070058</v>
-      </c>
-      <c r="C17">
         <v>0.02384354173405101</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.3506507999999999</v>
-      </c>
-      <c r="C18">
         <v>0.03339311883696294</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.3151685</v>
-      </c>
-      <c r="C19">
         <v>-0.02627052084817183</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.2890486000000001</v>
-      </c>
-      <c r="C20">
         <v>-0.01986049696293657</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.3459391000000001</v>
-      </c>
-      <c r="C21">
         <v>0.04413371225879303</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.3563299</v>
-      </c>
-      <c r="C22">
         <v>0.007720111556310361</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.3535592000000001</v>
-      </c>
-      <c r="C23">
         <v>-0.002042792096524582</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.3518190000000001</v>
-      </c>
-      <c r="C24">
         <v>-0.001285647498831199</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.3453484</v>
-      </c>
-      <c r="C25">
         <v>-0.004786587553511357</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.3983562</v>
-      </c>
-      <c r="C26">
         <v>0.03940079759265336</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.3871849000000001</v>
-      </c>
-      <c r="C27">
         <v>-0.007988880086490124</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.3895500999999999</v>
-      </c>
-      <c r="C28">
         <v>0.001705035860756432</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.406172</v>
-      </c>
-      <c r="C29">
         <v>0.01196207319189146</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.4479128999999999</v>
-      </c>
-      <c r="C30">
         <v>0.02968406425387493</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.4458576999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.001419422397576531</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.4917796000000001</v>
-      </c>
-      <c r="C32">
         <v>0.03176100939947291</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.4605359</v>
-      </c>
-      <c r="C33">
         <v>-0.02094391155369069</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.4172134999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.02966198913700113</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.2638784999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.1081947074311669</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.2897637</v>
-      </c>
-      <c r="C36">
         <v>0.02048076614959427</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.3214368000000001</v>
-      </c>
-      <c r="C37">
         <v>0.02455728906000387</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.3178418999999999</v>
-      </c>
-      <c r="C38">
         <v>-0.002720447924562275</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.3547918999999999</v>
-      </c>
-      <c r="C39">
         <v>0.02803826468106685</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.3662213000000001</v>
-      </c>
-      <c r="C40">
         <v>0.008436277187662711</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.3234986</v>
-      </c>
-      <c r="C41">
         <v>-0.03127070263067933</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.3127158000000001</v>
-      </c>
-      <c r="C42">
         <v>-0.008147194111123301</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.3570549999999999</v>
-      </c>
-      <c r="C43">
-        <v>0.03377669408717399</v>
+        <v>0.02390768816829958</v>
       </c>
     </row>
   </sheetData>
